--- a/mkp_p03.xlsx
+++ b/mkp_p03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre Raposo\Documents\Andre\Universidade\4º Ano - 2º Semestre\OD\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre Raposo\Documents\Andre\Universidade\4º Ano - 2º Semestre\OD\Project\OD22_G12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC228D5-C6D0-43F2-8747-54627EA6FF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F26B8B-B8B3-45CA-BA8B-21C068B45405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F02EEBCD-FB04-43C1-A2DA-BD6D21DAC29D}"/>
   </bookViews>
@@ -20,36 +20,36 @@
     <definedName name="profits" localSheetId="0">Sheet1!$E$3:$E$12</definedName>
     <definedName name="qtd">Sheet1!$C$3:$C$12</definedName>
     <definedName name="solution1">Sheet1!#REF!</definedName>
-    <definedName name="solution2">Sheet1!$K$3:$K$12</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$F$3:$F$12,Sheet1!$G$3:$G$12,Sheet1!$H$3:$H$12,Sheet1!$I$3:$I$12</definedName>
+    <definedName name="solution2">Sheet1!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$G$3:$G$12,Sheet1!$H$3:$H$12,Sheet1!$I$3:$I$12,Sheet1!$J$3:$J$12</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$E$17:$E$20</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Sheet1!$I$3:$I$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$J$3:$J$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$F$3:$F$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$F$3:$F$12</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$G$3:$G$12</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$G$3:$G$12</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$H$3:$H$12</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Sheet1!$H$3:$H$12</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Sheet1!$I$3:$I$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$G$3:$J$12</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Sheet1!$E$17:$E$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$E$17:$E$20</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$K$3:$K$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$G$3:$G$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$H$3:$H$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$H$3:$H$12</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$I$3:$I$12</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Sheet1!$I$3:$I$12</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Sheet1!$J$3:$J$12</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$F$22</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
@@ -58,9 +58,9 @@
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Capacity</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">integer</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">qtd</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Sheet1!$C$17:$C$20</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Capacity</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">qtd</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">integer</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">qtd</definedName>
@@ -70,7 +70,7 @@
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">qtd</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
@@ -83,11 +83,11 @@
     <definedName name="Total_Capacity">Sheet1!$C$22</definedName>
     <definedName name="Total_Profit">Sheet1!$F$22</definedName>
     <definedName name="Total_Weight">Sheet1!$E$22</definedName>
-    <definedName name="used">Sheet1!$J$3:$J$12</definedName>
-    <definedName name="used1">Sheet1!$F$3:$F$12</definedName>
-    <definedName name="used2">Sheet1!$G$3:$G$12</definedName>
-    <definedName name="used3">Sheet1!$H$3:$H$12</definedName>
-    <definedName name="used4">Sheet1!$I$3:$I$12</definedName>
+    <definedName name="used">Sheet1!$K$3:$K$12</definedName>
+    <definedName name="used1">Sheet1!$G$3:$G$12</definedName>
+    <definedName name="used2">Sheet1!$H$3:$H$12</definedName>
+    <definedName name="used3">Sheet1!$I$3:$I$12</definedName>
+    <definedName name="used4">Sheet1!$J$3:$J$12</definedName>
     <definedName name="weights" localSheetId="0">Sheet1!$D$3:$D$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Total</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>used4</t>
+  </si>
+  <si>
+    <t>LOW WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6D8822-8A46-4AC2-ABB4-DC8DCF2B4CB4}">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -551,22 +554,21 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3">
@@ -576,13 +578,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
-        <v>78</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -594,7 +593,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f>F3+G3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUM(G3:J3)</f>
         <v>1</v>
       </c>
     </row>
@@ -606,25 +608,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <f>F4+G4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K3:K11" si="0">SUM(G4:J4)</f>
         <v>1</v>
       </c>
     </row>
@@ -636,13 +638,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
-        <v>89</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -654,8 +653,11 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>F5+G5</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -666,13 +668,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -684,7 +683,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>F6+G6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>SUM(G6:J6)</f>
         <v>0</v>
       </c>
     </row>
@@ -696,13 +698,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1">
-        <v>94</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -714,7 +713,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f>F7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -726,13 +728,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1">
-        <v>75</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -744,7 +743,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f>F8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -756,13 +758,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1">
-        <v>74</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +773,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f>F9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -786,13 +788,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1">
-        <v>79</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -804,7 +803,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f>F10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -816,13 +818,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1">
-        <v>80</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -834,7 +833,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f>F11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -846,13 +848,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -864,7 +863,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <f>F12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>SUM(G12:J12)</f>
         <v>0</v>
       </c>
     </row>
@@ -901,7 +903,7 @@
       </c>
       <c r="F17">
         <f>SUMPRODUCT(profits, used1)</f>
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -913,11 +915,11 @@
       </c>
       <c r="E18">
         <f>SUMPRODUCT(weights, used2)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <f>SUMPRODUCT(profits, used2)</f>
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -962,11 +964,16 @@
       </c>
       <c r="E22">
         <f>SUM(E17:E18)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <f>SUM(F17:F18)</f>
-        <v>202</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="E23" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
